--- a/files/purchase.xlsx
+++ b/files/purchase.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\koa-learning\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{079BB156-C954-4020-8B1C-0914E4ADFC08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3C58773-7971-4F17-B6B1-FBA9863E3C88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>采购时间</t>
   </si>
@@ -58,22 +58,10 @@
     <t>签字</t>
   </si>
   <si>
-    <t>校长（签字）：</t>
-  </si>
-  <si>
-    <t>分管校长（签字）：</t>
-  </si>
-  <si>
-    <t>食堂管理员（签字）</t>
-  </si>
-  <si>
-    <t>监督员（签字）：</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月份</t>
+    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
+  </si>
+  <si>
+    <t>&lt;%forRow eny in _data_[1]%&gt;&lt;%=eny.purchasingDate%&gt;</t>
   </si>
   <si>
     <t>&lt;%=eny.name%&gt;</t>
@@ -106,17 +94,31 @@
     <t>&lt;%=eny.supplierName%&gt;</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">                                             年 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 月份</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;%=_data_[0][0].name%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forRow eny in _data_[1]%&gt;&lt;%=eny.purchasingDate%&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,28 +134,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -168,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,46 +194,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -513,53 +576,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04525FF-C460-48C1-AEAA-DD41EFF3A869}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+    <row r="2" spans="1:12" ht="19.5">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,73 +666,97 @@
       <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:12" ht="30" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A5:L7"/>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>